--- a/Template.XLSX
+++ b/Template.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\C#\Conquer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B6FCB-2467-4BB7-83C8-B3125288DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F50DC9-0AFE-4ACE-97AD-42411FA77118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F2" xr:uid="{88B15B98-9D9B-46F4-A478-CDC973C26AAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F1048576" xr:uid="{88B15B98-9D9B-46F4-A478-CDC973C26AAB}">
       <formula1>"None,User,BusinessUnit,ParentChild,Organization"</formula1>
     </dataValidation>
   </dataValidations>
